--- a/biology/Botanique/Garryaceae/Garryaceae.xlsx
+++ b/biology/Botanique/Garryaceae/Garryaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,9 +518,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Garrya, donné par le botaniste David Douglas  en hommage à Nicholas Garry (en) (1782–1856), commerçant britannique pour la Compagnie de la Baie d'Hudson (Canada)[1]..
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Garrya, donné par le botaniste David Douglas  en hommage à Nicholas Garry (en) (1782–1856), commerçant britannique pour la Compagnie de la Baie d'Hudson (Canada)..
 </t>
         </is>
       </c>
@@ -537,18 +551,20 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille botanique des Garryaceae (Garryacées) regroupe des plantes dicotylédones. 
-En classification classique de Cronquist (1981)[2], et aussi dans la classification phylogénétique APG (1998)[3], cette famille ne comprenait qu'un seul genre, Garrya.
-La classification phylogénétique APG II (2003)[4] offre deux options :
+En classification classique de Cronquist (1981), et aussi dans la classification phylogénétique APG (1998), cette famille ne comprenait qu'un seul genre, Garrya.
+La classification phylogénétique APG II (2003) offre deux options :
 stricto sensu : seulement Garrya
 lato sensu : Aucuba et Garrya
 APWebsite [22 dec 2006] accepte le cas lato sensu. La famille comprend alors :
 Garrya : 13 espèces, des arbres ou des arbustes à feuilles persistantes, originaires du sud-est des États-Unis, d'Amérique centrale et des Antilles.
 Aucuba : 3 espèces (?) des arbustes originaires d'Asie centrale et du Japon.
-En classification phylogénétique APG III (2009)[5], qui n'a jamais recours à des familles optionnelles, seule la version lato sensu est reconnue.
-La classification phylogénétique APG III (2009)[5] inclut dans cette famille les genres précédemment placés dans la famille Aucubaceae. Le genre Aucuba pour être précis.
+En classification phylogénétique APG III (2009), qui n'a jamais recours à des familles optionnelles, seule la version lato sensu est reconnue.
+La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans la famille Aucubaceae. Le genre Aucuba pour être précis.
 </t>
         </is>
       </c>
@@ -577,12 +593,14 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (2 Jul 2010)[6], Angiosperm Phylogeny Website                        (2 Jul 2010)[7] et NCBI  (2 Jul 2010)[8] (Plus conformes à APGIII puisqu'ils incorporent le genre Aucuba anciennement dans Aucubaceae) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (2 Jul 2010), Angiosperm Phylogeny Website                        (2 Jul 2010) et NCBI  (2 Jul 2010) (Plus conformes à APGIII puisqu'ils incorporent le genre Aucuba anciennement dans Aucubaceae) :
 Aucuba Thunb. (1783)
 Garrya Douglas ex Lindl. (1834)
-Selon DELTA Angio           (2 Jul 2010)[9] et ITIS      (2 Jul 2010)[10] :
+Selon DELTA Angio           (2 Jul 2010) et ITIS      (2 Jul 2010) :
 genre Garrya Dougl. ex Lindl.</t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (2 Jul 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (2 Jul 2010) :
 genre Aucuba Thunb. (1783)
 Aucuba albopunctifolia F.T.Wang (1949)
 Aucuba chinensis Benth. (1861)
@@ -641,7 +661,7 @@
 Garrya salicifolia Eastw. (1903)
 Garrya veatchii Kellogg (1873)
 Garrya wrightii Torr., Pacif. Railr. Rep. Parke (1857)
-Selon NCBI  (2 Jul 2010)[8] :
+Selon NCBI  (2 Jul 2010) :
 genre Aucuba
 Aucuba chinensis
 Aucuba eriobotryifolia
